--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1007542.653606574</v>
+        <v>1005350.776453401</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942699</v>
+        <v>28215137.91942701</v>
       </c>
     </row>
     <row r="8">
@@ -737,76 +737,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="T3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="U3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="V3" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D6" t="n">
         <v>41.31500304752735</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,62 +1059,62 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="V7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I7" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>160.8223549901433</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>315.9468183213035</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T12" t="n">
         <v>125.7874466415632</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>178.0891201955404</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>271.5679831933489</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>218.0125320665953</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T15" t="n">
         <v>125.7874466415632</v>
@@ -1785,7 +1785,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1861,7 +1861,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
-        <v>140.4614579451047</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>108.8093040361632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T18" t="n">
         <v>125.7874466415632</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>372.1253505675372</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>43.30688140290681</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T21" t="n">
         <v>125.7874466415632</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427809</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752265</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T24" t="n">
         <v>125.7874466415632</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427809</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T27" t="n">
         <v>125.7874466415632</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427809</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T30" t="n">
         <v>125.7874466415632</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.9513258013682</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427837</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T33" t="n">
         <v>125.7874466415632</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>170.0758917563169</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>372.1253505675372</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T36" t="n">
         <v>125.7874466415632</v>
@@ -3444,7 +3444,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>375.5217129878034</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>81.12951420413265</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T39" t="n">
         <v>125.7874466415632</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>298.6609962518651</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>380.7630670759391</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T42" t="n">
         <v>125.7874466415632</v>
@@ -3918,7 +3918,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>123.318503013941</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>380.7630670759391</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T45" t="n">
         <v>125.7874466415632</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064261</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
         <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4330,28 +4330,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M2" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N2" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O2" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P2" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
         <v>3.305200243802188</v>
@@ -4409,52 +4409,52 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>42.55445313895319</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="O3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="P3" t="n">
+        <v>111.1725794383639</v>
+      </c>
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="M3" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="N3" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O3" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="P3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.06303325820834</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="C4" t="n">
-        <v>40.06303325820834</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="D4" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E4" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,52 +4488,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K4" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K4" t="n">
-        <v>85.10890627790634</v>
-      </c>
       <c r="L4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="M4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="N4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P4" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="M4" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="N4" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O4" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X4" t="n">
-        <v>81.79535956884203</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y4" t="n">
-        <v>40.06303325820834</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
         <v>3.305200243802188</v>
@@ -4567,22 +4567,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600527</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C6" t="n">
         <v>86.76985286506957</v>
@@ -4643,28 +4643,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M6" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N6" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O6" t="n">
-        <v>44.20705326085427</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4707,34 +4707,34 @@
         <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
         <v>124.3581591730573</v>
@@ -4749,25 +4749,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
         <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y7" t="n">
         <v>86.76985286506957</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I8" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K8" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K8" t="n">
-        <v>83.45630615600527</v>
-      </c>
       <c r="L8" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M8" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N8" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O8" t="n">
         <v>124.3581591730573</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4883,10 +4883,10 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L9" t="n">
         <v>83.45630615600527</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
         <v>45.03752655443588</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L10" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M10" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N10" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O10" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1958.267057720514</v>
+        <v>1642.26389904205</v>
       </c>
       <c r="C11" t="n">
-        <v>1520.124584903937</v>
+        <v>1204.121426225473</v>
       </c>
       <c r="D11" t="n">
-        <v>1084.214800078381</v>
+        <v>768.211641399918</v>
       </c>
       <c r="E11" t="n">
-        <v>650.4400552366765</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F11" t="n">
-        <v>222.5726256458842</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G11" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H11" t="n">
         <v>60.12580242351726</v>
@@ -5041,28 +5041,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>234.7606604020847</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K11" t="n">
-        <v>415.1612716583815</v>
+        <v>978.8174653931108</v>
       </c>
       <c r="L11" t="n">
-        <v>638.9641820350651</v>
+        <v>1202.620375769794</v>
       </c>
       <c r="M11" t="n">
-        <v>887.9880420333529</v>
+        <v>1451.644235768083</v>
       </c>
       <c r="N11" t="n">
-        <v>1141.041368432843</v>
+        <v>1704.697562167573</v>
       </c>
       <c r="O11" t="n">
-        <v>1379.992448804368</v>
+        <v>1943.648642539098</v>
       </c>
       <c r="P11" t="n">
-        <v>2048.4012797357</v>
+        <v>2687.705447530124</v>
       </c>
       <c r="Q11" t="n">
-        <v>2748.049925732254</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R11" t="n">
         <v>3006.290121175863</v>
@@ -5071,22 +5071,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T11" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U11" t="n">
-        <v>2747.183578271595</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="V11" t="n">
-        <v>2384.566628205421</v>
+        <v>2473.418924115925</v>
       </c>
       <c r="W11" t="n">
-        <v>2384.566628205421</v>
+        <v>2068.563469526958</v>
       </c>
       <c r="X11" t="n">
-        <v>2384.566628205421</v>
+        <v>2068.563469526958</v>
       </c>
       <c r="Y11" t="n">
-        <v>2384.566628205421</v>
+        <v>2068.563469526958</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>86.25132408734103</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>482.5000773542449</v>
       </c>
       <c r="K12" t="n">
-        <v>280.4721130373318</v>
+        <v>605.0304380035443</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160065</v>
+        <v>769.7876290822189</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101591</v>
+        <v>962.0514999763718</v>
       </c>
       <c r="N12" t="n">
-        <v>834.8456984678771</v>
+        <v>1159.40402343409</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.38470148666</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P12" t="n">
-        <v>1160.283168008897</v>
+        <v>1484.84149297511</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5178,16 +5178,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G13" t="n">
         <v>263.3976759832894</v>
@@ -5199,25 +5199,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>399.7727096942246</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L13" t="n">
-        <v>912.5617265081466</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M13" t="n">
-        <v>1471.766030621768</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N13" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O13" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P13" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q13" t="n">
         <v>2998.677814292588</v>
@@ -5238,7 +5238,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W13" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X13" t="n">
         <v>1532.482929320613</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1596.029905133506</v>
+        <v>1816.244583988653</v>
       </c>
       <c r="C14" t="n">
-        <v>1596.029905133506</v>
+        <v>1378.102111172077</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.029905133506</v>
+        <v>942.192326346521</v>
       </c>
       <c r="E14" t="n">
-        <v>1162.255160291802</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F14" t="n">
-        <v>734.3877307010093</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G14" t="n">
         <v>334.4368965582132</v>
@@ -5278,28 +5278,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550026</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K14" t="n">
-        <v>1414.072152846028</v>
+        <v>879.630883821245</v>
       </c>
       <c r="L14" t="n">
-        <v>1637.875063222712</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M14" t="n">
-        <v>1886.898923221</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N14" t="n">
-        <v>2139.95224962049</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O14" t="n">
-        <v>2378.903329992015</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P14" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q14" t="n">
-        <v>2748.049925732254</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
@@ -5311,19 +5311,19 @@
         <v>3006.290121175863</v>
       </c>
       <c r="U14" t="n">
-        <v>2786.075442320716</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.458492254542</v>
+        <v>2643.673171109689</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.458492254542</v>
+        <v>2643.673171109689</v>
       </c>
       <c r="X14" t="n">
-        <v>2004.316028833853</v>
+        <v>2224.530707689</v>
       </c>
       <c r="Y14" t="n">
-        <v>1596.029905133506</v>
+        <v>1816.244583988653</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K15" t="n">
-        <v>280.4721130373318</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L15" t="n">
-        <v>445.2293041160065</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M15" t="n">
-        <v>637.4931750101591</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N15" t="n">
-        <v>834.8456984678771</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1015.38470148666</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1160.283168008897</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5439,10 +5439,10 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K16" t="n">
-        <v>399.7727096942244</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L16" t="n">
-        <v>912.5617265081464</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M16" t="n">
         <v>1471.766030621767</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1901.741544365998</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="C17" t="n">
-        <v>1463.599071549421</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D17" t="n">
-        <v>1463.599071549421</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E17" t="n">
-        <v>1029.824326707716</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F17" t="n">
-        <v>601.9568971169242</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G17" t="n">
-        <v>202.006062974128</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H17" t="n">
         <v>60.12580242351726</v>
@@ -5515,7 +5515,7 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>670.0153478550026</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K17" t="n">
         <v>850.4159591112995</v>
@@ -5524,19 +5524,19 @@
         <v>1074.218869487983</v>
       </c>
       <c r="M17" t="n">
-        <v>1818.275674479009</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N17" t="n">
-        <v>2152.009766554301</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>2390.960846925826</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P17" t="n">
-        <v>2594.900065694295</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q17" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R17" t="n">
         <v>3006.290121175863</v>
@@ -5548,19 +5548,19 @@
         <v>3006.290121175863</v>
       </c>
       <c r="U17" t="n">
-        <v>2747.183578271595</v>
+        <v>2896.381733260546</v>
       </c>
       <c r="V17" t="n">
-        <v>2747.183578271595</v>
+        <v>2896.381733260546</v>
       </c>
       <c r="W17" t="n">
-        <v>2747.183578271595</v>
+        <v>2896.381733260546</v>
       </c>
       <c r="X17" t="n">
-        <v>2328.041114850906</v>
+        <v>2896.381733260546</v>
       </c>
       <c r="Y17" t="n">
-        <v>2328.041114850906</v>
+        <v>2896.381733260546</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>434.0744497294286</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K18" t="n">
-        <v>556.604810378728</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L18" t="n">
-        <v>721.3620014574025</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M18" t="n">
         <v>913.6258723515552</v>
@@ -5664,34 +5664,34 @@
         <v>428.3398778129751</v>
       </c>
       <c r="G19" t="n">
-        <v>263.397675983289</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H19" t="n">
-        <v>129.2663519946445</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I19" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>399.7727096942246</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L19" t="n">
-        <v>912.5617265081466</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M19" t="n">
-        <v>1471.766030621768</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N19" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O19" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P19" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q19" t="n">
         <v>2998.677814292588</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1795.820234498146</v>
+        <v>2034.172377950083</v>
       </c>
       <c r="C20" t="n">
-        <v>1357.67776168157</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="D20" t="n">
-        <v>921.7679768560143</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E20" t="n">
-        <v>487.9932320143095</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F20" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G20" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H20" t="n">
         <v>60.12580242351726</v>
@@ -5752,52 +5752,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583815</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>822.9774416985435</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>1072.001301696831</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>1816.058106687857</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P20" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V20" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W20" t="n">
-        <v>3006.290121175863</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.405928683401</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2222.119804983054</v>
+        <v>2034.172377950083</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>86.25132408734103</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880325</v>
+        <v>482.5000773542449</v>
       </c>
       <c r="K21" t="n">
-        <v>673.7775884730679</v>
+        <v>605.0304380035443</v>
       </c>
       <c r="L21" t="n">
-        <v>838.5347795517424</v>
+        <v>769.7876290822189</v>
       </c>
       <c r="M21" t="n">
-        <v>1030.798650445895</v>
+        <v>962.0514999763718</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.151173903613</v>
+        <v>1159.40402343409</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.690176922396</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1484.84149297511</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C22" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G22" t="n">
         <v>263.3976759832894</v>
@@ -5910,25 +5910,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L22" t="n">
-        <v>966.5593737926656</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M22" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N22" t="n">
-        <v>2065.371788892515</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O22" t="n">
-        <v>2574.958880340052</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P22" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5943,7 +5943,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V22" t="n">
         <v>2049.901088400909</v>
@@ -5955,7 +5955,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F23" t="n">
-        <v>775.37774228975</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G23" t="n">
         <v>375.4269081469535</v>
@@ -5989,28 +5989,28 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J23" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471219</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L23" t="n">
-        <v>1707.459481648809</v>
+        <v>1115.208881076723</v>
       </c>
       <c r="M23" t="n">
-        <v>2958.767680050496</v>
+        <v>1364.232741075012</v>
       </c>
       <c r="N23" t="n">
-        <v>4210.075878452182</v>
+        <v>1846.522018629018</v>
       </c>
       <c r="O23" t="n">
-        <v>4449.026958823707</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
-        <v>4813.554709884365</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R23" t="n">
         <v>5055.790700612876</v>
@@ -6022,19 +6022,19 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V23" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>224.9954371372304</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260721</v>
+        <v>347.5257977865298</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047467</v>
+        <v>512.2829888652045</v>
       </c>
       <c r="M24" t="n">
-        <v>1071.788662034635</v>
+        <v>704.5468597593573</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>901.8993832170754</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511137</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6147,25 +6147,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>198.6601172705716</v>
       </c>
       <c r="K25" t="n">
-        <v>494.7603685674839</v>
+        <v>272.5699464186321</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.549385381406</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M25" t="n">
-        <v>1566.753689495027</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N25" t="n">
-        <v>2106.361800481255</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O25" t="n">
-        <v>2615.948891928793</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P25" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q25" t="n">
         <v>3039.667825881328</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E26" t="n">
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
@@ -6232,34 +6232,34 @@
         <v>456.1512832471219</v>
       </c>
       <c r="L26" t="n">
-        <v>1707.459481648809</v>
+        <v>1707.459481648808</v>
       </c>
       <c r="M26" t="n">
-        <v>2573.648358799835</v>
+        <v>2958.767680050495</v>
       </c>
       <c r="N26" t="n">
-        <v>2826.701685199325</v>
+        <v>4210.075878452181</v>
       </c>
       <c r="O26" t="n">
-        <v>3065.65276557085</v>
+        <v>4609.615491115896</v>
       </c>
       <c r="P26" t="n">
-        <v>4097.901859172714</v>
+        <v>4813.554709884364</v>
       </c>
       <c r="Q26" t="n">
-        <v>4797.550505169267</v>
+        <v>4966.704569922323</v>
       </c>
       <c r="R26" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S26" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
@@ -6287,16 +6287,16 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D27" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E27" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G27" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H27" t="n">
         <v>101.1158140122575</v>
@@ -6305,28 +6305,28 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>523.4900889429852</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260721</v>
+        <v>646.0204495922845</v>
       </c>
       <c r="L27" t="n">
-        <v>486.2193157047467</v>
+        <v>810.7776406709592</v>
       </c>
       <c r="M27" t="n">
-        <v>1071.788662034635</v>
+        <v>1003.041511565112</v>
       </c>
       <c r="N27" t="n">
-        <v>1269.141185492353</v>
+        <v>1200.39403502283</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511137</v>
+        <v>1380.933038041613</v>
       </c>
       <c r="P27" t="n">
-        <v>1594.578655033373</v>
+        <v>1525.83150456385</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1622.692292143968</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6387,19 +6387,19 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K28" t="n">
-        <v>494.7603685674839</v>
+        <v>440.7627212829649</v>
       </c>
       <c r="L28" t="n">
-        <v>1007.549385381406</v>
+        <v>953.551738096887</v>
       </c>
       <c r="M28" t="n">
-        <v>1566.753689495027</v>
+        <v>1512.756042210508</v>
       </c>
       <c r="N28" t="n">
-        <v>2106.361800481255</v>
+        <v>2052.364153196736</v>
       </c>
       <c r="O28" t="n">
-        <v>2615.948891928793</v>
+        <v>2561.951244644274</v>
       </c>
       <c r="P28" t="n">
         <v>2986.398386422581</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C29" t="n">
         <v>2072.929701547803</v>
@@ -6451,10 +6451,10 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.37774228975</v>
+        <v>775.3777422897501</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6466,19 +6466,19 @@
         <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>891.4059707000398</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>1115.208881076723</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M29" t="n">
-        <v>2366.51707947841</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N29" t="n">
-        <v>3617.825277880097</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O29" t="n">
-        <v>3856.776358251622</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P29" t="n">
         <v>4097.901859172714</v>
@@ -6496,10 +6496,10 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V29" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W29" t="n">
         <v>3764.800331970323</v>
@@ -6508,7 +6508,7 @@
         <v>3345.657868549634</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>153.3050088365389</v>
+        <v>127.2413356760813</v>
       </c>
       <c r="J30" t="n">
-        <v>475.064461318169</v>
+        <v>198.9317639767728</v>
       </c>
       <c r="K30" t="n">
-        <v>597.5948219674684</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L30" t="n">
-        <v>762.3520130461429</v>
+        <v>486.2193157047468</v>
       </c>
       <c r="M30" t="n">
-        <v>954.6158839402957</v>
+        <v>678.4831865988997</v>
       </c>
       <c r="N30" t="n">
-        <v>1151.968407398014</v>
+        <v>875.8357100566177</v>
       </c>
       <c r="O30" t="n">
-        <v>1332.507410416797</v>
+        <v>1056.374713075401</v>
       </c>
       <c r="P30" t="n">
-        <v>1477.405876939034</v>
+        <v>1201.273179597638</v>
       </c>
       <c r="Q30" t="n">
-        <v>1574.266664519152</v>
+        <v>1691.439442613492</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,25 +6621,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>494.7603685674839</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
-        <v>1007.549385381406</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
-        <v>1566.753689495027</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2106.361800481255</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2615.948891928793</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6679,7 +6679,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
         <v>1637.019916722247</v>
@@ -6742,7 +6742,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
         <v>2937.371744849287</v>
@@ -6779,13 +6779,13 @@
         <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>475.064461318169</v>
+        <v>475.0644613181688</v>
       </c>
       <c r="K33" t="n">
-        <v>597.5948219674684</v>
+        <v>597.5948219674682</v>
       </c>
       <c r="L33" t="n">
-        <v>762.3520130461429</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M33" t="n">
         <v>954.6158839402957</v>
@@ -6858,25 +6858,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>494.7603685674839</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L34" t="n">
-        <v>1007.549385381406</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
-        <v>1566.753689495027</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N34" t="n">
-        <v>2106.361800481255</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O34" t="n">
-        <v>2615.948891928793</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P34" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1795.820234498146</v>
+        <v>929.8103320907776</v>
       </c>
       <c r="C35" t="n">
-        <v>1357.67776168157</v>
+        <v>929.8103320907776</v>
       </c>
       <c r="D35" t="n">
-        <v>921.7679768560143</v>
+        <v>493.9005472652221</v>
       </c>
       <c r="E35" t="n">
-        <v>487.9932320143095</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="F35" t="n">
         <v>60.12580242351726</v>
@@ -6937,10 +6937,10 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>879.6308838212452</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
         <v>1103.433794197929</v>
@@ -6958,31 +6958,31 @@
         <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2748.049925732254</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S35" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>2783.817866771221</v>
       </c>
       <c r="U35" t="n">
-        <v>3006.290121175863</v>
+        <v>2524.711323866954</v>
       </c>
       <c r="V35" t="n">
-        <v>3006.290121175863</v>
+        <v>2162.09437380078</v>
       </c>
       <c r="W35" t="n">
-        <v>3006.290121175863</v>
+        <v>1757.238919211813</v>
       </c>
       <c r="X35" t="n">
-        <v>2630.405928683401</v>
+        <v>1338.096455791124</v>
       </c>
       <c r="Y35" t="n">
-        <v>2222.119804983054</v>
+        <v>929.8103320907776</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>86.25132408734103</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880325</v>
+        <v>482.5000773542449</v>
       </c>
       <c r="K36" t="n">
-        <v>280.4721130373318</v>
+        <v>605.0304380035443</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160065</v>
+        <v>769.7876290822189</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101591</v>
+        <v>962.0514999763718</v>
       </c>
       <c r="N36" t="n">
-        <v>834.8456984678771</v>
+        <v>1159.40402343409</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.38470148666</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P36" t="n">
-        <v>1160.283168008897</v>
+        <v>1484.84149297511</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>399.7727096942246</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L37" t="n">
-        <v>912.5617265081466</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M37" t="n">
-        <v>1471.766030621768</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N37" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O37" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P37" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2175.135096101988</v>
+        <v>1634.221543807287</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.992623285412</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.082838459856</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="E38" t="n">
-        <v>867.3080936181514</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F38" t="n">
-        <v>439.4406640273591</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G38" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H38" t="n">
         <v>60.12580242351726</v>
@@ -7177,22 +7177,22 @@
         <v>670.0153478550027</v>
       </c>
       <c r="K38" t="n">
-        <v>850.4159591112995</v>
+        <v>879.630883821245</v>
       </c>
       <c r="L38" t="n">
-        <v>1074.218869487983</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M38" t="n">
-        <v>1323.242729486271</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N38" t="n">
-        <v>1576.296055885761</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O38" t="n">
-        <v>1815.247136257286</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P38" t="n">
-        <v>2559.303941248312</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q38" t="n">
         <v>2748.049925732253</v>
@@ -7201,25 +7201,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="W38" t="n">
-        <v>2601.434666586896</v>
+        <v>2550.75624223914</v>
       </c>
       <c r="X38" t="n">
-        <v>2601.434666586896</v>
+        <v>2468.807237992542</v>
       </c>
       <c r="Y38" t="n">
-        <v>2601.434666586896</v>
+        <v>2060.521114292195</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K39" t="n">
-        <v>673.7775884730679</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L39" t="n">
-        <v>838.5347795517424</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M39" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q39" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7332,25 +7332,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>399.7727096942246</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L40" t="n">
-        <v>912.5617265081466</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M40" t="n">
-        <v>1471.766030621768</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N40" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O40" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P40" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7423,40 +7423,40 @@
         <v>1323.242729486271</v>
       </c>
       <c r="N41" t="n">
-        <v>1576.296055885761</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>1815.247136257286</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P41" t="n">
         <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
-        <v>2748.049925732254</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W41" t="n">
-        <v>2621.680962513298</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="X41" t="n">
-        <v>2202.538499092609</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="Y41" t="n">
-        <v>1794.252375392262</v>
+        <v>1669.630578899137</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>112.3149972477986</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J42" t="n">
-        <v>434.0744497294286</v>
+        <v>482.5000773542449</v>
       </c>
       <c r="K42" t="n">
-        <v>556.604810378728</v>
+        <v>605.0304380035443</v>
       </c>
       <c r="L42" t="n">
-        <v>721.3620014574025</v>
+        <v>769.7876290822189</v>
       </c>
       <c r="M42" t="n">
-        <v>913.6258723515552</v>
+        <v>962.0514999763718</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.978395809273</v>
+        <v>1159.40402343409</v>
       </c>
       <c r="O42" t="n">
-        <v>1291.517398828056</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P42" t="n">
-        <v>1436.415865350293</v>
+        <v>1484.84149297511</v>
       </c>
       <c r="Q42" t="n">
-        <v>1533.276652930412</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C43" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D43" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F43" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G43" t="n">
         <v>263.3976759832894</v>
@@ -7569,25 +7569,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K43" t="n">
-        <v>540.3500421434334</v>
+        <v>453.7703569787436</v>
       </c>
       <c r="L43" t="n">
-        <v>1053.139058957355</v>
+        <v>966.5593737926657</v>
       </c>
       <c r="M43" t="n">
-        <v>1612.343363070976</v>
+        <v>1525.763677906287</v>
       </c>
       <c r="N43" t="n">
-        <v>2151.951474057205</v>
+        <v>2065.371788892516</v>
       </c>
       <c r="O43" t="n">
-        <v>2352.768458191201</v>
+        <v>2574.958880340053</v>
       </c>
       <c r="P43" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q43" t="n">
         <v>2998.677814292588</v>
@@ -7602,7 +7602,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U43" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V43" t="n">
         <v>2049.901088400909</v>
@@ -7614,7 +7614,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y43" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1752.561963569919</v>
+        <v>1292.72662000124</v>
       </c>
       <c r="C44" t="n">
-        <v>1314.419490753342</v>
+        <v>1292.72662000124</v>
       </c>
       <c r="D44" t="n">
-        <v>878.5097059277869</v>
+        <v>1168.162475542714</v>
       </c>
       <c r="E44" t="n">
-        <v>444.734961086082</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F44" t="n">
-        <v>444.734961086082</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G44" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H44" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I44" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020847</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K44" t="n">
-        <v>415.1612716583815</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L44" t="n">
-        <v>1159.218076649408</v>
+        <v>638.9641820350653</v>
       </c>
       <c r="M44" t="n">
-        <v>1903.274881640433</v>
+        <v>887.9880420333533</v>
       </c>
       <c r="N44" t="n">
-        <v>2321.163831307358</v>
+        <v>1141.041368432844</v>
       </c>
       <c r="O44" t="n">
-        <v>2560.114911678883</v>
+        <v>1379.992448804369</v>
       </c>
       <c r="P44" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R44" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V44" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122276</v>
       </c>
       <c r="W44" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122276</v>
       </c>
       <c r="X44" t="n">
-        <v>2587.147657755173</v>
+        <v>1701.012743701587</v>
       </c>
       <c r="Y44" t="n">
-        <v>2178.861534054827</v>
+        <v>1292.72662000124</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G45" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H45" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I45" t="n">
-        <v>112.3149972477986</v>
+        <v>86.25132408734102</v>
       </c>
       <c r="J45" t="n">
-        <v>434.0744497294286</v>
+        <v>482.5000773542449</v>
       </c>
       <c r="K45" t="n">
-        <v>556.604810378728</v>
+        <v>605.0304380035443</v>
       </c>
       <c r="L45" t="n">
-        <v>721.3620014574025</v>
+        <v>769.7876290822189</v>
       </c>
       <c r="M45" t="n">
-        <v>913.6258723515552</v>
+        <v>962.0514999763718</v>
       </c>
       <c r="N45" t="n">
-        <v>1110.978395809273</v>
+        <v>1159.40402343409</v>
       </c>
       <c r="O45" t="n">
-        <v>1291.517398828056</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P45" t="n">
-        <v>1436.415865350293</v>
+        <v>1484.84149297511</v>
       </c>
       <c r="Q45" t="n">
-        <v>1533.276652930412</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7785,58 +7785,58 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C46" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D46" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E46" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512185</v>
       </c>
       <c r="F46" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129747</v>
       </c>
       <c r="G46" t="n">
         <v>263.397675983289</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2663519946445</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I46" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J46" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K46" t="n">
-        <v>540.3500421434334</v>
+        <v>453.7703569787436</v>
       </c>
       <c r="L46" t="n">
-        <v>1053.139058957355</v>
+        <v>966.5593737926657</v>
       </c>
       <c r="M46" t="n">
-        <v>1612.343363070976</v>
+        <v>1525.763677906287</v>
       </c>
       <c r="N46" t="n">
-        <v>2151.951474057205</v>
+        <v>2065.371788892516</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2574.958880340053</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.40837483384</v>
       </c>
       <c r="Q46" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R46" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S46" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182775</v>
       </c>
       <c r="T46" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U46" t="n">
         <v>2336.856596530478</v>
@@ -7845,7 +7845,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W46" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X46" t="n">
         <v>1532.482929320613</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="L4" t="n">
-        <v>39.64570999510201</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>39.64570999510202</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="K9" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>569.3496906411406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>469.1612244069332</v>
+        <v>545.5733194167251</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>77.11988173457348</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>69.44156613083146</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>222.9907144309258</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>569.3496906411402</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>12.17931003415342</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>222.9907144309257</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>81.49572290485074</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>200.3727166292949</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>252.5949739201399</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>222.9907144309258</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>185.8719794580591</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>510.2078026459606</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>397.278258015895</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>69.44156613083146</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>296.4739865513366</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547673</v>
+        <v>231.5514658126426</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>162.2106386789797</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>397.2782580158949</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>53.09902264877149</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>296.4739865513366</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>1037.884129318185</v>
       </c>
       <c r="M26" t="n">
-        <v>623.3990072249878</v>
+        <v>1012.408422629695</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>162.2106386789801</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>397.2782580158949</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.44156613083169</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>296.4739865513366</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P29" t="n">
-        <v>37.56190116426751</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>252.5949739201401</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>397.2782580158946</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>296.4739865513366</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>378.853864410753</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>252.5949739201401</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>296.4739865513366</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>469.1612244069331</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>69.44156613083146</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>222.9907144309258</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>545.5733194167249</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.95568125856835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K39" t="n">
-        <v>397.278258015895</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>222.9907144309259</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>29.5100249595414</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>252.5949739201399</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>69.44156613083146</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11232,13 +11232,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>112.0193352648894</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>296.4739865513357</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5089844589318</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>166.5006295630651</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>469.1612244069318</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>252.5949739201399</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>69.44156613083146</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,13 +11469,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>112.0193352648892</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>296.4739865513352</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>235.1289708112249</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427809</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>43.04396224420827</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>251.3478771977474</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427809</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>38.50294540862996</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>131.1065252482443</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427809</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>147.7061734390621</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23797,7 +23797,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427809</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>42.82568821894523</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>360.8963810604363</v>
       </c>
     </row>
     <row r="21">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427809</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>41.51977501171831</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>42.82568821894523</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>20.42961281356473</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427809</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>333.8215245823498</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>123.3755785281936</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427809</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>20.04383296713786</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>308.2321839633589</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>15.18825872542908</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427809</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>409279.2350724959</v>
+        <v>409279.235072496</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409279.2350724959</v>
+        <v>409279.235072496</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123268</v>
@@ -26322,22 +26322,22 @@
         <v>428917.8559123267</v>
       </c>
       <c r="E2" t="n">
-        <v>302294.9224813544</v>
+        <v>302294.9224813545</v>
       </c>
       <c r="F2" t="n">
-        <v>302294.9224813546</v>
+        <v>302294.9224813543</v>
       </c>
       <c r="G2" t="n">
         <v>302294.9224813544</v>
       </c>
       <c r="H2" t="n">
-        <v>302294.9224813543</v>
+        <v>302294.9224813545</v>
       </c>
       <c r="I2" t="n">
-        <v>428917.8559123266</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="J2" t="n">
-        <v>428917.8559123266</v>
+        <v>428917.8559123265</v>
       </c>
       <c r="K2" t="n">
         <v>428917.8559123266</v>
@@ -26346,13 +26346,13 @@
         <v>428917.8559123265</v>
       </c>
       <c r="M2" t="n">
+        <v>302294.9224813544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>302294.9224813543</v>
+      </c>
+      <c r="O2" t="n">
         <v>302294.9224813545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302294.9224813544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302294.9224813544</v>
       </c>
       <c r="P2" t="n">
         <v>302294.9224813544</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>136251.3108961175</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.8226573672</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041605</v>
+        <v>49313.08122041613</v>
       </c>
       <c r="N3" t="n">
-        <v>2.356633406937666e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>299855.2806251332</v>
       </c>
       <c r="E4" t="n">
-        <v>50871.66601070171</v>
+        <v>50871.66601070168</v>
       </c>
       <c r="F4" t="n">
-        <v>50871.6660107017</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="G4" t="n">
+        <v>50871.66601070168</v>
+      </c>
+      <c r="H4" t="n">
         <v>50871.66601070169</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50871.66601070171</v>
       </c>
       <c r="I4" t="n">
         <v>99561.61401273994</v>
       </c>
       <c r="J4" t="n">
-        <v>99561.61401273996</v>
+        <v>99561.61401273991</v>
       </c>
       <c r="K4" t="n">
-        <v>99561.61401273996</v>
+        <v>99561.61401273993</v>
       </c>
       <c r="L4" t="n">
         <v>99561.61401273993</v>
@@ -26453,13 +26453,13 @@
         <v>50871.66601070169</v>
       </c>
       <c r="N4" t="n">
-        <v>50871.6660107017</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="O4" t="n">
-        <v>50871.66601070171</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="P4" t="n">
-        <v>50871.66601070169</v>
+        <v>50871.66601070166</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>84616.25585716027</v>
       </c>
       <c r="J5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
         <v>84616.25585716027</v>
@@ -26511,7 +26511,7 @@
         <v>53463.84704971767</v>
       </c>
       <c r="P5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
     </row>
     <row r="6">
@@ -26521,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79077.41533560744</v>
+        <v>79077.41533560732</v>
       </c>
       <c r="C6" t="n">
-        <v>92923.02310190392</v>
+        <v>92923.02310190398</v>
       </c>
       <c r="D6" t="n">
         <v>92923.0231019038</v>
       </c>
       <c r="E6" t="n">
-        <v>-300393.4165627356</v>
+        <v>-300789.1132297073</v>
       </c>
       <c r="F6" t="n">
-        <v>197959.4094209352</v>
+        <v>197563.7127539632</v>
       </c>
       <c r="G6" t="n">
-        <v>197959.4094209351</v>
+        <v>197563.7127539632</v>
       </c>
       <c r="H6" t="n">
-        <v>197959.4094209349</v>
+        <v>197563.7127539634</v>
       </c>
       <c r="I6" t="n">
         <v>108488.6751463089</v>
       </c>
       <c r="J6" t="n">
-        <v>233930.1633850591</v>
+        <v>233930.1633850592</v>
       </c>
       <c r="K6" t="n">
         <v>244739.9860424264</v>
@@ -26554,16 +26554,16 @@
         <v>244739.9860424264</v>
       </c>
       <c r="M6" t="n">
-        <v>148646.3282005191</v>
+        <v>148250.6315335472</v>
       </c>
       <c r="N6" t="n">
-        <v>197959.4094209351</v>
+        <v>197563.7127539632</v>
       </c>
       <c r="O6" t="n">
-        <v>197959.409420935</v>
+        <v>197563.7127539634</v>
       </c>
       <c r="P6" t="n">
-        <v>197959.4094209351</v>
+        <v>197563.7127539634</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="G3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="H3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="I3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="J3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="K3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="M3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="N3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="O3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="P3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>751.5725302939657</v>
       </c>
       <c r="P4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939655</v>
       </c>
     </row>
   </sheetData>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.945791758672082e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>512.3751448592534</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.882382387185</v>
+        <v>197.8823823871853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>57.74913128065019</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27542,19 +27542,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>149.0326012679123</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5497288135992</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27596,16 +27596,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D6" t="n">
         <v>52.82438291738493</v>
@@ -27751,10 +27751,10 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27779,22 +27779,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>207.0303972730672</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
         <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>4.928040977687559</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>92.48660254844231</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
         <v>174.5731815300314</v>
@@ -28013,7 +28013,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>142.462343412403</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28070,16 +28070,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>232.9158856853093</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-8.606448886894214e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
         <v>182.2228396528251</v>
@@ -31770,28 +31770,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N11" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S11" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T11" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I12" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299744</v>
@@ -31855,25 +31855,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S12" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P13" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R13" t="n">
         <v>28.89284195367662</v>
@@ -31949,7 +31949,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T13" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U13" t="n">
         <v>0.03504994980227658</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
         <v>182.2228396528251</v>
@@ -32007,28 +32007,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N14" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S14" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T14" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I15" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
         <v>166.4214051299744</v>
@@ -32092,25 +32092,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S15" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P16" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R16" t="n">
         <v>28.89284195367662</v>
@@ -32186,7 +32186,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T16" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U16" t="n">
         <v>0.03504994980227658</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
         <v>182.2228396528251</v>
@@ -32244,28 +32244,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N17" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S17" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T17" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I18" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L18" t="n">
         <v>166.4214051299744</v>
@@ -32329,25 +32329,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S18" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P19" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R19" t="n">
         <v>28.89284195367662</v>
@@ -32423,7 +32423,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T19" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U19" t="n">
         <v>0.03504994980227658</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
         <v>182.2228396528251</v>
@@ -32481,28 +32481,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N20" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S20" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T20" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I21" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
         <v>166.4214051299744</v>
@@ -32566,25 +32566,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S21" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P22" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R22" t="n">
         <v>28.89284195367662</v>
@@ -32660,7 +32660,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T22" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U22" t="n">
         <v>0.03504994980227658</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H23" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
         <v>182.2228396528251</v>
@@ -32718,28 +32718,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N23" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S23" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I24" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299744</v>
@@ -32803,25 +32803,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S24" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,37 +32858,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P25" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R25" t="n">
         <v>28.89284195367662</v>
@@ -32897,7 +32897,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U25" t="n">
         <v>0.03504994980227658</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H26" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K26" t="n">
         <v>182.2228396528251</v>
@@ -32955,28 +32955,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S26" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I27" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
         <v>166.4214051299744</v>
@@ -33040,25 +33040,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S27" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P28" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R28" t="n">
         <v>28.89284195367662</v>
@@ -33134,7 +33134,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U28" t="n">
         <v>0.03504994980227658</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H29" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
         <v>182.2228396528251</v>
@@ -33192,28 +33192,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N29" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S29" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I30" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
         <v>166.4214051299744</v>
@@ -33277,25 +33277,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S30" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P31" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R31" t="n">
         <v>28.89284195367662</v>
@@ -33371,7 +33371,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U31" t="n">
         <v>0.03504994980227658</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H32" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
         <v>182.2228396528251</v>
@@ -33429,28 +33429,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N32" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S32" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I33" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
         <v>166.4214051299744</v>
@@ -33514,25 +33514,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S33" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P34" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R34" t="n">
         <v>28.89284195367662</v>
@@ -33608,7 +33608,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U34" t="n">
         <v>0.03504994980227658</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H35" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
         <v>182.2228396528251</v>
@@ -33666,28 +33666,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N35" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S35" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I36" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
         <v>166.4214051299744</v>
@@ -33751,25 +33751,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S36" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P37" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R37" t="n">
         <v>28.89284195367662</v>
@@ -33845,7 +33845,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U37" t="n">
         <v>0.03504994980227658</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H38" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
         <v>182.2228396528251</v>
@@ -33903,28 +33903,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N38" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S38" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I39" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
         <v>166.4214051299744</v>
@@ -33988,25 +33988,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S39" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P40" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R40" t="n">
         <v>28.89284195367662</v>
@@ -34082,7 +34082,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U40" t="n">
         <v>0.03504994980227658</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H41" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
         <v>182.2228396528251</v>
@@ -34140,28 +34140,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N41" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S41" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I42" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L42" t="n">
         <v>166.4214051299744</v>
@@ -34225,25 +34225,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S42" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P43" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R43" t="n">
         <v>28.89284195367662</v>
@@ -34319,7 +34319,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U43" t="n">
         <v>0.03504994980227658</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H44" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
         <v>182.2228396528251</v>
@@ -34377,28 +34377,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N44" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S44" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I45" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299744</v>
@@ -34462,25 +34462,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S45" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,37 +34517,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P46" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R46" t="n">
         <v>28.89284195367662</v>
@@ -34556,7 +34556,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U46" t="n">
         <v>0.03504994980227658</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="L4" t="n">
-        <v>39.64570999510201</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>39.64570999510202</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="K9" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>182.222839652825</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
         <v>255.6094206055459</v>
@@ -35427,13 +35427,13 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>675.1604352841739</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q11" t="n">
-        <v>706.7158040369222</v>
+        <v>231.8167100557434</v>
       </c>
       <c r="R11" t="n">
-        <v>260.8486822662717</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110247</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M12" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q12" t="n">
-        <v>495.1174373897516</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>117.029919045081</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>297.6471075097749</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M13" t="n">
-        <v>564.852832438001</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
         <v>514.7344358055936</v>
@@ -35588,10 +35588,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J14" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K14" t="n">
-        <v>751.5725302939653</v>
+        <v>211.732864612366</v>
       </c>
       <c r="L14" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
         <v>255.6094206055459</v>
@@ -35664,13 +35664,13 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>218.1785209113941</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R14" t="n">
-        <v>260.8486822662717</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q15" t="n">
-        <v>495.1174373897516</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>45.43057660205077</v>
       </c>
       <c r="K16" t="n">
-        <v>297.6471075097746</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M16" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
         <v>545.0586979658876</v>
@@ -35828,7 +35828,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R16" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J17" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350338</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>337.1051435103966</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>406.3719275065357</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R17" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>52.71635840836502</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
-        <v>325.0095479612424</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
         <v>199.3459832906242</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K19" t="n">
-        <v>297.6471075097749</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L19" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M19" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
         <v>514.7344358055936</v>
@@ -36062,10 +36062,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R19" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
         <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
-        <v>411.935525293093</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110247</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K21" t="n">
-        <v>521.0462990757933</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
         <v>146.3620873961988</v>
@@ -36223,7 +36223,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>117.029919045081</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524465</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M22" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P22" t="n">
-        <v>374.1914085795843</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153219</v>
+        <v>487.1608864181885</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480051</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P23" t="n">
-        <v>368.2098495562204</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J24" t="n">
-        <v>72.4145740411025</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4841882120088</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36457,10 +36457,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205076</v>
+        <v>98.52959925082226</v>
       </c>
       <c r="K25" t="n">
-        <v>352.1901855749455</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L25" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P25" t="n">
-        <v>374.1914085795843</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R25" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J26" t="n">
         <v>121.5839606692724</v>
@@ -36603,22 +36603,22 @@
         <v>1263.947675153219</v>
       </c>
       <c r="M26" t="n">
-        <v>874.938259748511</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055459</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480051</v>
+        <v>403.5753663269852</v>
       </c>
       <c r="P26" t="n">
-        <v>1042.675852123095</v>
+        <v>205.9992108772403</v>
       </c>
       <c r="Q26" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R26" t="n">
-        <v>260.8486822662717</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>26.38941582204421</v>
       </c>
       <c r="J27" t="n">
-        <v>72.4145740411025</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4841882120088</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
         <v>199.3459832906242</v>
@@ -36697,7 +36697,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>117.0299190450812</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205079</v>
       </c>
       <c r="K28" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L28" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M28" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N28" t="n">
         <v>545.0586979658874</v>
@@ -36770,13 +36770,13 @@
         <v>514.7344358055934</v>
       </c>
       <c r="P28" t="n">
-        <v>374.1914085795843</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
         <v>53.80751460479496</v>
       </c>
       <c r="R28" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L29" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N29" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480051</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P29" t="n">
-        <v>243.5611120415078</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
         <v>706.7158040369222</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>52.71635840836504</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J30" t="n">
-        <v>325.0095479612426</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M30" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
@@ -36931,10 +36931,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897513</v>
       </c>
       <c r="R30" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205076</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L31" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>564.852832438001</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P31" t="n">
-        <v>374.1914085795843</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J32" t="n">
         <v>561.2351601166642</v>
@@ -37083,10 +37083,10 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>620.2185920587581</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P32" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
         <v>706.7158040369222</v>
@@ -37147,16 +37147,16 @@
         <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>325.0095479612426</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M33" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
         <v>199.3459832906242</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205076</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K34" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L34" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.852832438001</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N34" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P34" t="n">
-        <v>374.1914085795843</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>651.3840640597582</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350339</v>
+        <v>255.5735707945749</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
         <v>255.6094206055459</v>
@@ -37326,10 +37326,10 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R35" t="n">
-        <v>260.8486822662717</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110247</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M36" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q36" t="n">
-        <v>495.1174373897516</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>117.029919045081</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K37" t="n">
-        <v>297.6471075097749</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M37" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
         <v>514.7344358055936</v>
@@ -37484,10 +37484,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J38" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K38" t="n">
-        <v>182.222839652825</v>
+        <v>211.732864612366</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
         <v>255.6094206055459</v>
@@ -37560,10 +37560,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>751.5725302939657</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>190.6525095797383</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R38" t="n">
         <v>260.8486822662721</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K39" t="n">
-        <v>521.0462990757933</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M39" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961988</v>
@@ -37645,7 +37645,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
-        <v>297.6471075097749</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M40" t="n">
-        <v>564.852832438001</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
         <v>514.7344358055936</v>
@@ -37721,10 +37721,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J41" t="n">
         <v>561.2351601166642</v>
@@ -37785,10 +37785,10 @@
         <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350338</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
         <v>255.6094206055459</v>
@@ -37797,13 +37797,13 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>235.5092358367822</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q41" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R41" t="n">
-        <v>260.8486822662717</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>52.71635840836502</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>325.0095479612424</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M42" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
         <v>199.3459832906242</v>
@@ -37882,7 +37882,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>165.9446944236836</v>
+        <v>117.029919045081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K43" t="n">
         <v>352.1901855749455</v>
@@ -37946,22 +37946,22 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M43" t="n">
-        <v>564.8528324380009</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
-        <v>202.8454385191885</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P43" t="n">
-        <v>428.7344866447547</v>
+        <v>374.1914085795834</v>
       </c>
       <c r="Q43" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R43" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>751.5725302939657</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M44" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N44" t="n">
-        <v>422.110050168611</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O44" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>675.1604352841725</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.71635840836502</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>325.0095479612424</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M45" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
         <v>199.3459832906242</v>
@@ -38119,7 +38119,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>165.9446944236836</v>
+        <v>117.029919045081</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K46" t="n">
         <v>352.1901855749455</v>
@@ -38183,22 +38183,22 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M46" t="n">
-        <v>564.8528324380009</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N46" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
-        <v>202.8454385191885</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P46" t="n">
-        <v>428.7344866447547</v>
+        <v>374.1914085795829</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
